--- a/data/trans_orig/P57B1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9524</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4463</v>
+        <v>3851</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20131</v>
+        <v>18531</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01732798975100669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008118996333563619</v>
+        <v>0.007005671309690328</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0366259795778377</v>
+        <v>0.03371539618841114</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>6476</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2991</v>
+        <v>3321</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12098</v>
+        <v>11850</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01325982578867117</v>
+        <v>0.01325982578867116</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006124859175333906</v>
+        <v>0.006799861245705323</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02476952637107132</v>
+        <v>0.02426204051069991</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -783,19 +783,19 @@
         <v>16000</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9572</v>
+        <v>9210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25930</v>
+        <v>26176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01541388590481319</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009220976792506726</v>
+        <v>0.008872140970870596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02497959757971041</v>
+        <v>0.02521615977565501</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>19251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12004</v>
+        <v>11862</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30728</v>
+        <v>29921</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03502550749596314</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02184035957140734</v>
+        <v>0.02158221153125119</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05590666371796036</v>
+        <v>0.05443830089405417</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -833,19 +833,19 @@
         <v>25799</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17452</v>
+        <v>18499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35272</v>
+        <v>35571</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05282179003497695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03573238549927356</v>
+        <v>0.03787501266914268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07221701658434784</v>
+        <v>0.07283000791704404</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -854,19 +854,19 @@
         <v>45050</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34226</v>
+        <v>32593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59506</v>
+        <v>58875</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04339880148589281</v>
+        <v>0.0433988014858928</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03297169325010879</v>
+        <v>0.03139872703892351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05732439571628776</v>
+        <v>0.05671697271176939</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>164703</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142853</v>
+        <v>143077</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>188439</v>
+        <v>189125</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2996570990215178</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2599039042029623</v>
+        <v>0.260310223369526</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3428409736645561</v>
+        <v>0.3440895809536427</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>204</v>
@@ -904,19 +904,19 @@
         <v>143623</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127128</v>
+        <v>126110</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>161438</v>
+        <v>161676</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2940616807102176</v>
+        <v>0.2940616807102175</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.260289585228703</v>
+        <v>0.2582053135191352</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3305376387411396</v>
+        <v>0.3310243869727543</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>371</v>
@@ -925,19 +925,19 @@
         <v>308326</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>280314</v>
+        <v>278888</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>339325</v>
+        <v>338784</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2970244097273104</v>
+        <v>0.2970244097273103</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2700388234214903</v>
+        <v>0.2686655282467205</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3268866307279026</v>
+        <v>0.3263654266533507</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>356160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>331510</v>
+        <v>331649</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>377748</v>
+        <v>378290</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6479894037315124</v>
+        <v>0.6479894037315123</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6031409559904775</v>
+        <v>0.6033940593627615</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6872656741530172</v>
+        <v>0.6882520014141953</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>438</v>
@@ -975,19 +975,19 @@
         <v>312513</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>293548</v>
+        <v>293697</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>330741</v>
+        <v>330856</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6398567034661343</v>
+        <v>0.6398567034661342</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6010259775492577</v>
+        <v>0.6013321153332402</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6771775168075288</v>
+        <v>0.6774140245898709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>796</v>
@@ -996,19 +996,19 @@
         <v>668673</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>636697</v>
+        <v>638968</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>699307</v>
+        <v>700136</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6441629028819836</v>
+        <v>0.6441629028819835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6133589092968129</v>
+        <v>0.6155461411507825</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6736737954541776</v>
+        <v>0.674472211018883</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>3763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1190</v>
+        <v>1280</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8559</v>
+        <v>8542</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007828357628843442</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002474735032730179</v>
+        <v>0.002662949053811807</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01780379563218941</v>
+        <v>0.01776761139512684</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1121,19 +1121,19 @@
         <v>6034</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3023</v>
+        <v>2938</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10514</v>
+        <v>10564</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01428612825859408</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007156880204652723</v>
+        <v>0.006954542141433771</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02489145641845796</v>
+        <v>0.02501068030173705</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -1142,19 +1142,19 @@
         <v>9798</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5852</v>
+        <v>5800</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15528</v>
+        <v>15786</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01084866149028943</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00647985665299783</v>
+        <v>0.006422227844284699</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01719315498803693</v>
+        <v>0.01747907871218284</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>24852</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16702</v>
+        <v>16248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36796</v>
+        <v>35176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0516958912896575</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03474271906245872</v>
+        <v>0.03379711648390491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07653993062825971</v>
+        <v>0.07317012685816365</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1192,19 +1192,19 @@
         <v>27761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19789</v>
+        <v>20007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38438</v>
+        <v>39104</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06572254610259645</v>
+        <v>0.06572254610259647</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04684841548103315</v>
+        <v>0.04736567545307209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09100080304548371</v>
+        <v>0.09257531685680963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -1213,19 +1213,19 @@
         <v>52613</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41098</v>
+        <v>40633</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69264</v>
+        <v>66111</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.058256167602278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04550559468522051</v>
+        <v>0.04499085855627432</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07669262941502682</v>
+        <v>0.07320184264237721</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>151308</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130875</v>
+        <v>129068</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170625</v>
+        <v>171451</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3147415741839242</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2722383960345827</v>
+        <v>0.2684792268318265</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3549227143141199</v>
+        <v>0.3566414006117709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>203</v>
@@ -1263,19 +1263,19 @@
         <v>147555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132321</v>
+        <v>130024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166372</v>
+        <v>165223</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.349326704456303</v>
+        <v>0.3493267044563031</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3132610313585713</v>
+        <v>0.3078240481486013</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3938767124061651</v>
+        <v>0.3911567713350672</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>360</v>
@@ -1284,19 +1284,19 @@
         <v>298863</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>272541</v>
+        <v>271549</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>325903</v>
+        <v>328126</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3309170639154806</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3017725024035399</v>
+        <v>0.3006737354226976</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3608573417230747</v>
+        <v>0.3633189961452907</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>300814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>280498</v>
+        <v>278716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>323331</v>
+        <v>324823</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6257341768975748</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5834742960919451</v>
+        <v>0.579767376219772</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6725726818524956</v>
+        <v>0.6756755253003913</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>339</v>
@@ -1334,19 +1334,19 @@
         <v>241047</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>223347</v>
+        <v>223315</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>259296</v>
+        <v>258471</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5706646211825064</v>
+        <v>0.5706646211825065</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5287615721900317</v>
+        <v>0.5286848301108343</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6138687121511555</v>
+        <v>0.6119150237657314</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>629</v>
@@ -1355,19 +1355,19 @@
         <v>541861</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>513024</v>
+        <v>513305</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>567913</v>
+        <v>571894</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5999781069919519</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5680483522547497</v>
+        <v>0.5683587693948242</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6288236429217301</v>
+        <v>0.633232247843005</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>6959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2874</v>
+        <v>3249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13589</v>
+        <v>13212</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01478441493403781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006106758036699181</v>
+        <v>0.006901969816676905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02887077944212115</v>
+        <v>0.02807021813834468</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1480,19 +1480,19 @@
         <v>5193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2669</v>
+        <v>2550</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10506</v>
+        <v>9746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02777861914826782</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01428016675448235</v>
+        <v>0.0136429312098178</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05620090938363569</v>
+        <v>0.05213614889643271</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1501,19 +1501,19 @@
         <v>12151</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7336</v>
+        <v>7270</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20487</v>
+        <v>19128</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01847809866883227</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01115624662606958</v>
+        <v>0.01105556044536292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0311539520025972</v>
+        <v>0.02908751455146164</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>30319</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21378</v>
+        <v>21408</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42974</v>
+        <v>42507</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0644164109669431</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0454197542586266</v>
+        <v>0.04548327782712673</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09130201565383508</v>
+        <v>0.09031040964755989</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -1551,19 +1551,19 @@
         <v>15725</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10216</v>
+        <v>10648</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22348</v>
+        <v>22646</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08412148204812003</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05465013779467355</v>
+        <v>0.05696119222887158</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1195537503339602</v>
+        <v>0.1211483459838501</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>60</v>
@@ -1572,19 +1572,19 @@
         <v>46044</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>35738</v>
+        <v>35062</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>59074</v>
+        <v>59933</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07001770053770461</v>
+        <v>0.07001770053770462</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05434592031300799</v>
+        <v>0.05331730450723166</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0898323003244854</v>
+        <v>0.09113795764316106</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>141104</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>121811</v>
+        <v>122688</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161866</v>
+        <v>164004</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2997889597607089</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2587991587582709</v>
+        <v>0.2606627136249137</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.343899971908447</v>
+        <v>0.3484433310881662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -1622,19 +1622,19 @@
         <v>63542</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53632</v>
+        <v>53673</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74793</v>
+        <v>74539</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3399270127275354</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2869101691364428</v>
+        <v>0.2871288312826586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4001135540873678</v>
+        <v>0.3987581712823507</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>257</v>
@@ -1643,19 +1643,19 @@
         <v>204646</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181323</v>
+        <v>180968</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226139</v>
+        <v>227839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3111984520963402</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2757312846960286</v>
+        <v>0.2751918001185915</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3438824735465096</v>
+        <v>0.3464675538137347</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>292295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>269690</v>
+        <v>272303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>313513</v>
+        <v>313206</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6210102143383104</v>
+        <v>0.6210102143383105</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5729823195849861</v>
+        <v>0.5785352994063928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6660894749676323</v>
+        <v>0.6654379170965483</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>152</v>
@@ -1693,19 +1693,19 @@
         <v>102469</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>90603</v>
+        <v>90723</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113746</v>
+        <v>113937</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5481728860760767</v>
+        <v>0.5481728860760766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.484689709437955</v>
+        <v>0.4853323710328054</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.608496145922329</v>
+        <v>0.6095186545759899</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>441</v>
@@ -1714,19 +1714,19 @@
         <v>394765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>370235</v>
+        <v>369123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418520</v>
+        <v>418953</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6003057486971229</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5630036869262378</v>
+        <v>0.5613128645020101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6364297577935111</v>
+        <v>0.6370883873050269</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>29820</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21892</v>
+        <v>21116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42016</v>
+        <v>42046</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02639340409504148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.019376604480175</v>
+        <v>0.0186893947763518</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03718807588075995</v>
+        <v>0.03721419586844576</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1839,19 +1839,19 @@
         <v>21163</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14832</v>
+        <v>14295</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29897</v>
+        <v>29394</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02462271150836753</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01725663980461384</v>
+        <v>0.01663224687515014</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03478385906388035</v>
+        <v>0.03419882456276368</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -1860,19 +1860,19 @@
         <v>50983</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39036</v>
+        <v>38628</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64385</v>
+        <v>64833</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02562836568141164</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01962244917506172</v>
+        <v>0.01941750636568978</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03236516174461879</v>
+        <v>0.03259028152136735</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>72970</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57832</v>
+        <v>57686</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89641</v>
+        <v>90699</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06458441211854042</v>
+        <v>0.06458441211854044</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05118619003491904</v>
+        <v>0.05105678754614584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07933992579591062</v>
+        <v>0.08027646164817785</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -1910,19 +1910,19 @@
         <v>55527</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44878</v>
+        <v>44903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68954</v>
+        <v>68115</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06460302665931321</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05221366479995148</v>
+        <v>0.05224343494075669</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08022542122351911</v>
+        <v>0.07924951939023715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -1931,19 +1931,19 @@
         <v>128496</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>110959</v>
+        <v>110659</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150956</v>
+        <v>149113</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06459245464317198</v>
+        <v>0.064592454643172</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05577664027966108</v>
+        <v>0.05562584453358787</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07588268832407775</v>
+        <v>0.07495600500240407</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>341921</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>312288</v>
+        <v>310468</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>376827</v>
+        <v>377970</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.302630256206152</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2764023250613306</v>
+        <v>0.2747911745711258</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3335249592761743</v>
+        <v>0.3345365520911326</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>409</v>
@@ -1981,19 +1981,19 @@
         <v>272142</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>251540</v>
+        <v>247633</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>297059</v>
+        <v>295710</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3166266348628348</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2926566515678445</v>
+        <v>0.2881111309059488</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3456162727571189</v>
+        <v>0.3440468438752755</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>774</v>
@@ -2002,19 +2002,19 @@
         <v>614064</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>575508</v>
+        <v>574476</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>654589</v>
+        <v>655134</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3086774760367745</v>
+        <v>0.3086774760367744</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2892960505916928</v>
+        <v>0.2887773188712016</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.329048630133397</v>
+        <v>0.3293225561307792</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>685121</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>649724</v>
+        <v>645965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>721169</v>
+        <v>716614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6063919275802662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5750628041642446</v>
+        <v>0.5717357359435294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6382971417085428</v>
+        <v>0.6342657993908971</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>703</v>
@@ -2052,19 +2052,19 @@
         <v>510673</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>486429</v>
+        <v>486536</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>535688</v>
+        <v>536130</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5941476269694845</v>
+        <v>0.5941476269694844</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5659410577207428</v>
+        <v>0.5660650589399894</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.623252142375849</v>
+        <v>0.6237657933210927</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1336</v>
@@ -2073,19 +2073,19 @@
         <v>1195794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1150989</v>
+        <v>1153734</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1237196</v>
+        <v>1237658</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6011017036386419</v>
+        <v>0.6011017036386418</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5785790119999942</v>
+        <v>0.5799585279215949</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6219133494353558</v>
+        <v>0.622145466879473</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>22037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14223</v>
+        <v>13988</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32981</v>
+        <v>32901</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03891609871354295</v>
+        <v>0.03891609871354296</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02511640920636769</v>
+        <v>0.02470208942839704</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05824126138250425</v>
+        <v>0.05810052971450771</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>71</v>
@@ -2198,19 +2198,19 @@
         <v>48134</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37502</v>
+        <v>37929</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61082</v>
+        <v>62867</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05812491216886263</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04528628603161674</v>
+        <v>0.04580114983615368</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07376009795761355</v>
+        <v>0.07591599144318879</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>95</v>
@@ -2219,19 +2219,19 @@
         <v>70172</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>56349</v>
+        <v>56211</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>87636</v>
+        <v>87566</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0503239829036745</v>
+        <v>0.05032398290367449</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04041134199704585</v>
+        <v>0.04031228767390577</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06284859924903446</v>
+        <v>0.06279808850314289</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>40667</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30464</v>
+        <v>29560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54951</v>
+        <v>53498</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07181380194698185</v>
+        <v>0.07181380194698186</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05379644640965437</v>
+        <v>0.05220074262059557</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09703887937107197</v>
+        <v>0.0944722606410591</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>155</v>
@@ -2269,19 +2269,19 @@
         <v>93319</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79980</v>
+        <v>78979</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>109727</v>
+        <v>107289</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1126884228558214</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09658038963657205</v>
+        <v>0.09537161323210511</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1325017753245339</v>
+        <v>0.1295580666921399</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>203</v>
@@ -2290,19 +2290,19 @@
         <v>133986</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113813</v>
+        <v>117781</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152575</v>
+        <v>154650</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09608874962806499</v>
+        <v>0.09608874962806496</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08162184935326615</v>
+        <v>0.084467518210567</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1094199543783102</v>
+        <v>0.1109084127328866</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>184089</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>161020</v>
+        <v>160574</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>207670</v>
+        <v>207153</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3250843380528423</v>
+        <v>0.3250843380528424</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2843463819890114</v>
+        <v>0.2835586663036888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3667252952549154</v>
+        <v>0.3658125894173331</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>522</v>
@@ -2340,19 +2340,19 @@
         <v>326162</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>302729</v>
+        <v>302140</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>348099</v>
+        <v>348257</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3938603737471427</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3655635987354839</v>
+        <v>0.3648527357425235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4203509400248571</v>
+        <v>0.4205411543828166</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>713</v>
@@ -2361,19 +2361,19 @@
         <v>510252</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>478508</v>
+        <v>477471</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>546817</v>
+        <v>541380</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3659296017169366</v>
+        <v>0.3659296017169364</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3431648831873817</v>
+        <v>0.3424208017804378</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3921528848906141</v>
+        <v>0.3882535658827841</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>319488</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>293419</v>
+        <v>293277</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>345316</v>
+        <v>344272</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5641857612866328</v>
+        <v>0.5641857612866329</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.518149164445023</v>
+        <v>0.517899169667417</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6097944036581098</v>
+        <v>0.6079509592549501</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>538</v>
@@ -2411,19 +2411,19 @@
         <v>360501</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>335419</v>
+        <v>338422</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>382885</v>
+        <v>385519</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.4353262912281733</v>
+        <v>0.4353262912281732</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4050387437881443</v>
+        <v>0.4086646436367963</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4623562407207533</v>
+        <v>0.465537043593023</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>820</v>
@@ -2432,19 +2432,19 @@
         <v>679989</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>644955</v>
+        <v>643901</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>714445</v>
+        <v>712970</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.487657665751324</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4625327729434615</v>
+        <v>0.4617771610028413</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5123681191515392</v>
+        <v>0.5113106024325786</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>1992</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6048</v>
+        <v>5637</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008398717114530883</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002235471294475416</v>
+        <v>0.002135586578193314</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02549272288558751</v>
+        <v>0.02376345002851976</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -2557,19 +2557,19 @@
         <v>23700</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17574</v>
+        <v>17046</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31891</v>
+        <v>32027</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02822645816443388</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0209302614103449</v>
+        <v>0.02030127790411574</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03798194597830511</v>
+        <v>0.03814344814485808</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>45</v>
@@ -2578,19 +2578,19 @@
         <v>25692</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18638</v>
+        <v>18108</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34071</v>
+        <v>34265</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02385850362635275</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01730756874790022</v>
+        <v>0.01681509001549506</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03163899430898538</v>
+        <v>0.03181945005887549</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>9441</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3914</v>
+        <v>3213</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22643</v>
+        <v>20513</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0397956515655823</v>
+        <v>0.03979565156558228</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01649702287136466</v>
+        <v>0.01354387919750271</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09544827255962755</v>
+        <v>0.08646933994922169</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>131</v>
@@ -2628,19 +2628,19 @@
         <v>85511</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>70678</v>
+        <v>70479</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>103118</v>
+        <v>101868</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1018434956459649</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08417728298070269</v>
+        <v>0.08394027128427529</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1228131897145689</v>
+        <v>0.1213241648321868</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>138</v>
@@ -2649,19 +2649,19 @@
         <v>94952</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>78315</v>
+        <v>78794</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>114023</v>
+        <v>113531</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.08817465856326638</v>
+        <v>0.08817465856326639</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07272507641417736</v>
+        <v>0.07317005879905993</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1058840914429808</v>
+        <v>0.1054276995546707</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>41640</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>26385</v>
+        <v>26656</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>60687</v>
+        <v>61075</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1755294196427148</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1112228925499756</v>
+        <v>0.1123637754563345</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2558189037257052</v>
+        <v>0.2574527972239771</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>453</v>
@@ -2699,19 +2699,19 @@
         <v>327167</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>299257</v>
+        <v>300402</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>352810</v>
+        <v>354155</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.389653353344904</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.356413165890498</v>
+        <v>0.3577768105826271</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4201942687820094</v>
+        <v>0.4217964147030604</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>475</v>
@@ -2720,19 +2720,19 @@
         <v>368807</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>333625</v>
+        <v>337108</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>401645</v>
+        <v>403531</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3424828962780948</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3098119936996219</v>
+        <v>0.3130467352395902</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3729772221404679</v>
+        <v>0.3747286602935847</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>184154</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>161812</v>
+        <v>164268</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>200225</v>
+        <v>200808</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7762762116771721</v>
+        <v>0.776276211677172</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6820956636582269</v>
+        <v>0.6924471280495084</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8440194037292236</v>
+        <v>0.8464771482845264</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>526</v>
@@ -2770,19 +2770,19 @@
         <v>403257</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>374159</v>
+        <v>374699</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>430298</v>
+        <v>434433</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4802766928446973</v>
+        <v>0.4802766928446972</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4456215996333243</v>
+        <v>0.4462647276247446</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5124822582665529</v>
+        <v>0.517406517571801</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>606</v>
@@ -2791,19 +2791,19 @@
         <v>587411</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>552027</v>
+        <v>548823</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>625953</v>
+        <v>622557</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5454839415322861</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5126247095421714</v>
+        <v>0.5096495178744794</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5812740519588422</v>
+        <v>0.5781212765183142</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>74096</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>57651</v>
+        <v>59656</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>92069</v>
+        <v>93015</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.02157474485874684</v>
+        <v>0.02157474485874683</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01678632299281135</v>
+        <v>0.01737012044670356</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02680793704374905</v>
+        <v>0.02708323341962806</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>171</v>
@@ -2916,19 +2916,19 @@
         <v>110701</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>95924</v>
+        <v>93997</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>129774</v>
+        <v>130911</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03053819364764642</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02646188830646563</v>
+        <v>0.02593018999524587</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03579969327737926</v>
+        <v>0.03611344597024223</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>252</v>
@@ -2937,19 +2937,19 @@
         <v>184797</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>161086</v>
+        <v>160519</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>210220</v>
+        <v>207628</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02617747171299098</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02281864446531776</v>
+        <v>0.02273838179461643</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02977877077164923</v>
+        <v>0.02941154667765487</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>197500</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>172584</v>
+        <v>172848</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>225395</v>
+        <v>226556</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05750645317133941</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05025155050778288</v>
+        <v>0.05032848300368826</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06562864987779432</v>
+        <v>0.06596684229400422</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>468</v>
@@ -2987,19 +2987,19 @@
         <v>303642</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>277980</v>
+        <v>277457</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>332353</v>
+        <v>331700</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08376335799145603</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07668434792632867</v>
+        <v>0.07653998299088355</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09168372196495263</v>
+        <v>0.09150366795163629</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>689</v>
@@ -3008,19 +3008,19 @@
         <v>501142</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>462940</v>
+        <v>462961</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>542490</v>
+        <v>542068</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.07098936178956561</v>
+        <v>0.07098936178956559</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06557790034515515</v>
+        <v>0.06558085851584887</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.076846605797714</v>
+        <v>0.0767868427312802</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>1024767</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>968073</v>
+        <v>966009</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1084388</v>
+        <v>1084778</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2983833299348003</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2818757713690526</v>
+        <v>0.2812747517803201</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3157435532171145</v>
+        <v>0.3158570097145695</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1892</v>
@@ -3058,19 +3058,19 @@
         <v>1280191</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1232033</v>
+        <v>1232948</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1333511</v>
+        <v>1329891</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3531567118966732</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3398717227366688</v>
+        <v>0.3401242110457531</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3678658182603933</v>
+        <v>0.3668672738742441</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2950</v>
@@ -3079,19 +3079,19 @@
         <v>2304957</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2230287</v>
+        <v>2231575</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2384754</v>
+        <v>2386413</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3265094365251449</v>
+        <v>0.3265094365251448</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3159319441516355</v>
+        <v>0.3161144726984949</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3378131111880484</v>
+        <v>0.338048112263915</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2138033</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2077182</v>
+        <v>2078284</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2197668</v>
+        <v>2200620</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6225354720351134</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6048172361778625</v>
+        <v>0.605138154517971</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6398994446003504</v>
+        <v>0.6407588586926355</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2696</v>
@@ -3129,19 +3129,19 @@
         <v>1930460</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1877860</v>
+        <v>1882322</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1982038</v>
+        <v>1985389</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5325417364642244</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5180314569800701</v>
+        <v>0.5192621400482605</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5467701987548431</v>
+        <v>0.5476945758800358</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4628</v>
@@ -3150,19 +3150,19 @@
         <v>4068494</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3986704</v>
+        <v>3981928</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4153745</v>
+        <v>4146621</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5763237299722986</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5647377446838014</v>
+        <v>0.564061230042776</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.588399988033058</v>
+        <v>0.5873908171680119</v>
       </c>
     </row>
     <row r="38">
